--- a/distancias_rodoviario.xlsx
+++ b/distancias_rodoviario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neves\Desktop\UTFPR\IA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neves\PycharmProjects\trabIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C7B8B3-3584-4C65-8BCA-37218EA5D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C2F7E-CE4C-4724-A896-9BE43D6F8BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C938DBC2-CE0E-499E-8CBA-41A17CFE77C8}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Origem</t>
   </si>
@@ -70,18 +70,6 @@
     <t>Teresina</t>
   </si>
   <si>
-    <t>B. Horizonte</t>
-  </si>
-  <si>
-    <t>C. Grande</t>
-  </si>
-  <si>
-    <t>&amp;nbsp;</t>
-  </si>
-  <si>
-    <t>Aracaju</t>
-  </si>
-  <si>
     <t>Aracajú</t>
   </si>
   <si>
@@ -122,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +241,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -599,8 +595,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -956,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76946D96-06CB-4851-9390-E61C74E5EA3D}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -981,34 +978,34 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -1038,21 +1035,21 @@
         <v>14</v>
       </c>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA1" t="s">
         <v>15</v>
       </c>
       <c r="AB1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1094,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1121,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>2079</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6083</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1183,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5298</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1224,13 +1221,13 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1578</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2824</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1239,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1453</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1257,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1290,22 +1287,22 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1313,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>6083</v>
       </c>
       <c r="D5">
-        <v>4736</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1355,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1396,28 +1393,28 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>716</v>
       </c>
       <c r="E6">
-        <v>4275</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1133</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1429,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1447,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1465,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1482,19 +1479,19 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2765</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2942</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1453</v>
       </c>
       <c r="E7">
-        <v>3836</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1134</v>
@@ -1503,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1557,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1568,19 +1565,19 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>2775</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2941</v>
       </c>
       <c r="D8">
-        <v>1594</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3142</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1133</v>
@@ -1601,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1613,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2357</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1456</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1657,31 +1654,31 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>2595</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3193</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4821</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1366</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>991</v>
       </c>
       <c r="H9">
-        <v>1679</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1729,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1740,28 +1737,28 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>2892</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5128</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1673</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1298</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1986</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>300</v>
@@ -1790,11 +1787,8 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1829,31 +1823,31 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1183</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2528</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>6548</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>3407</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3406</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3541</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3838</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1862,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1886,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1904,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1912,19 +1906,19 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>906</v>
       </c>
       <c r="E12">
-        <v>4076</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>209</v>
@@ -1936,13 +1930,13 @@
         <v>934</v>
       </c>
       <c r="I12">
-        <v>1186</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1963,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1981,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1643</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1998,40 +1992,40 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2161</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2171</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6593</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2245</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3357</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3366</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3188</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3485</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>688</v>
       </c>
       <c r="L13">
-        <v>2442</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2058,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2084,7 +2078,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2170,43 +2164,43 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>294</v>
       </c>
       <c r="C15">
-        <v>2173</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1854</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>6279</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1930</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3049</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2871</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3168</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2125</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2230,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2259,46 +2253,46 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5215</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>5298</v>
       </c>
       <c r="D16">
-        <v>3951</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>785</v>
       </c>
       <c r="F16">
-        <v>3490</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3051</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>2357</v>
       </c>
       <c r="I16">
-        <v>4036</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4443</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5763</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3291</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5808</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5491</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2313,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1445</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2345,37 +2339,37 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2108</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2348</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>6770</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2422</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>3534</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3543</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3365</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3662</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>537</v>
       </c>
       <c r="L17">
-        <v>2618</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>185</v>
@@ -2384,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>5985</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2431,52 +2425,52 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>1662</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1283</v>
       </c>
       <c r="D18">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4926</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>973</v>
       </c>
       <c r="G18">
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1784</v>
       </c>
       <c r="I18">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2336</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>874</v>
       </c>
       <c r="M18">
-        <v>2253</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1851</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>4141</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2345</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2497,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1454</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1386</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2517,55 +2511,55 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>3296</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3852</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1712</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>5348</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1518</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2206</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>476</v>
       </c>
       <c r="K19">
-        <v>4242</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1847</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>3889</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3572</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4563</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>4066</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2747</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2603,58 +2597,58 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>4230</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>4397</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1686</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2589</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1456</v>
       </c>
       <c r="I20">
-        <v>3135</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3442</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>4862</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2390</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>4822</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4505</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>901</v>
       </c>
       <c r="Q20">
-        <v>4998</v>
-      </c>
-      <c r="R20" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>3662</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2663,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2689,37 +2683,37 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2074</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2061</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>6483</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2135</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>3247</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3255</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3078</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3375</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>800</v>
       </c>
       <c r="L21">
-        <v>2332</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>120</v>
@@ -2731,19 +2725,19 @@
         <v>285</v>
       </c>
       <c r="P21">
-        <v>5698</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2058</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>3779</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>4712</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2755,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2764,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2775,64 +2769,64 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>4763</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4931</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>3584</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2230</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>3123</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>2684</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1990</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3976</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>5396</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>2924</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>5356</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5039</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>1445</v>
       </c>
       <c r="Q22">
-        <v>5533</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>3764</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>4196</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>544</v>
       </c>
       <c r="U22">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2861,67 +2855,67 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>434</v>
       </c>
       <c r="E23">
-        <v>5159</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1444</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2448</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>4374</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2625</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2124</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1553</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>2338</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>4007</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2933,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -2950,67 +2944,67 @@
         <v>356</v>
       </c>
       <c r="C24">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>1372</v>
       </c>
       <c r="E24">
-        <v>5794</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>1446</v>
       </c>
       <c r="G24">
-        <v>2568</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2566</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2682</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>1643</v>
       </c>
       <c r="M24">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>5009</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>1454</v>
       </c>
       <c r="S24">
-        <v>3090</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>4023</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>839</v>
       </c>
       <c r="V24">
-        <v>4457</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -3022,84 +3016,84 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1163</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>1578</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>806</v>
       </c>
       <c r="D25">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>6120</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2157</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>2979</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2978</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3230</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3537</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2054</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1672</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>5335</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1607</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>1386</v>
       </c>
       <c r="S25">
-        <v>3891</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>4434</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1573</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>4968</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>3015</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1599</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -3108,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3116,79 +3110,79 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>2187</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2933</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>586</v>
       </c>
       <c r="E26">
-        <v>4756</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>1014</v>
       </c>
       <c r="H26">
-        <v>1614</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>408</v>
       </c>
       <c r="J26">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>3127</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>2770</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>2453</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>3971</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>2947</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>3070</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>2660</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>3604</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>429</v>
       </c>
       <c r="X26">
-        <v>1962</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>2970</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3205,70 +3199,70 @@
         <v>15</v>
       </c>
       <c r="B27">
-        <v>1142</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>6052</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1789</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2911</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2910</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>634</v>
       </c>
       <c r="L27">
-        <v>1986</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1236</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>5267</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>1401</v>
       </c>
       <c r="S27">
-        <v>3804</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>4366</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>1137</v>
       </c>
       <c r="V27">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>2579</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>1163</v>
@@ -3277,7 +3271,7 @@
         <v>446</v>
       </c>
       <c r="Z27">
-        <v>2792</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -3288,70 +3282,70 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>524</v>
       </c>
       <c r="E28">
-        <v>5261</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1892</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2119</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2397</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1428</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1684</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>4476</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>2178</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2214</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>3575</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1831</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>4109</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>521</v>
@@ -3360,103 +3354,20 @@
         <v>1202</v>
       </c>
       <c r="Y28">
-        <v>2607</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>2171</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
+    <row r="33" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
